--- a/data/components.xlsx
+++ b/data/components.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4GB00_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AE6154-438B-2B4E-97D2-09BB0C0E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{A2AE6154-438B-2B4E-97D2-09BB0C0E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76915D7D-EB69-4A59-A7AB-F28DBA65D61F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="1" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
     <sheet name="Toolboxes" sheetId="2" r:id="rId2"/>
     <sheet name="Misc" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,222 +38,366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Beschikbaar</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Broken</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pneumatic </t>
+  </si>
+  <si>
+    <t>Hydraulic</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>group power supply</t>
+  </si>
+  <si>
+    <t>12V 1A DC 5.5-2.5</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>EST-E0001</t>
+  </si>
+  <si>
+    <t>Arduino UNO</t>
+  </si>
+  <si>
+    <t>Arduino prototyping board</t>
+  </si>
+  <si>
+    <t>https://store.arduino.cc/en-nl/products/arduino-uno-rev3?srsltid=AfmBOoqV6nKlv28zGLP7TRCnfL7lt0ZwXx8Yo48ohQyyKPPxEWplbDm5</t>
+  </si>
+  <si>
+    <t>On board</t>
+  </si>
+  <si>
+    <t>EST-E0002</t>
+  </si>
+  <si>
     <t>water flow sensor</t>
   </si>
   <si>
-    <t>light gate sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp sensor </t>
+    <t>measure water flow</t>
+  </si>
+  <si>
+    <t>EST-S0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS18B20 </t>
+  </si>
+  <si>
+    <t>https://www.bitsandparts.nl/Temperatuursensor-1-wire-Waterdicht-Dallas-DS18B20-2-meter-p109707</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>EST-S0004</t>
+  </si>
+  <si>
+    <t>water tank pvc</t>
+  </si>
+  <si>
+    <t>Water tank with inlet/outlet</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>EST-H0005</t>
+  </si>
+  <si>
+    <t>water tank holder</t>
+  </si>
+  <si>
+    <t>EST-H0006</t>
+  </si>
+  <si>
+    <t>measuring cup 3L</t>
+  </si>
+  <si>
+    <t>EST-G0007</t>
+  </si>
+  <si>
+    <t>Jerrycan</t>
+  </si>
+  <si>
+    <t>waterpump</t>
   </si>
   <si>
     <t>ball valve</t>
   </si>
   <si>
-    <t>fiets pomp</t>
-  </si>
-  <si>
-    <t>Group Power Supply</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>EST-C0008</t>
+  </si>
+  <si>
+    <t>bicycle pump</t>
+  </si>
+  <si>
+    <t>EST-G0009</t>
+  </si>
+  <si>
+    <t>pressure tank</t>
+  </si>
+  <si>
+    <t>max 6 bar</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>EST-H0010</t>
+  </si>
+  <si>
+    <t>air flow sensor ( PF2A521-F03-1 )</t>
+  </si>
+  <si>
+    <t>PF2A521.pdf</t>
+  </si>
+  <si>
+    <t>adjustable powers supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 to 24V DC 2A. </t>
+  </si>
+  <si>
+    <t>EST-E0012</t>
+  </si>
+  <si>
+    <t>DC Motor</t>
+  </si>
+  <si>
+    <t>Motor with adjustable gear ratios. Max 24v</t>
+  </si>
+  <si>
+    <t>on board</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>EST-E0013</t>
+  </si>
+  <si>
+    <t>light slot sensor</t>
+  </si>
+  <si>
+    <t>EST-E0014</t>
+  </si>
+  <si>
+    <t>mass with acceleration sensor</t>
+  </si>
+  <si>
+    <t>HB+Aliexpress</t>
+  </si>
+  <si>
+    <t>EST-H0015</t>
+  </si>
+  <si>
+    <t>power sensor for DC Motor</t>
+  </si>
+  <si>
+    <t>EST-E0016</t>
+  </si>
+  <si>
+    <t>drum set</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>EST-H0017</t>
+  </si>
+  <si>
+    <t>connector (WNX-02-F02V-F02V-F02V)</t>
+  </si>
+  <si>
+    <t>EST-C0031</t>
+  </si>
+  <si>
+    <t>connector (WNT-F02V-02-F02V)</t>
+  </si>
+  <si>
+    <t>EST-C0030</t>
+  </si>
+  <si>
+    <t>connector (WNH-F03-F02V)</t>
+  </si>
+  <si>
+    <t>EST-C0024</t>
+  </si>
+  <si>
+    <t>connector (WNH-F02-F03)</t>
+  </si>
+  <si>
+    <t>EST-C0028</t>
+  </si>
+  <si>
+    <t>connector (WNH-04-F2V)</t>
+  </si>
+  <si>
+    <t>EST-C0029</t>
+  </si>
+  <si>
+    <t>connector (WNH-02-02)</t>
+  </si>
+  <si>
+    <t>EST-C0023</t>
+  </si>
+  <si>
+    <t>connector (AKH06A CHECKA)</t>
+  </si>
+  <si>
+    <t>EST-C0021</t>
+  </si>
+  <si>
+    <t>connector (AKH06B CHECKB)</t>
+  </si>
+  <si>
+    <t>EST-C0022</t>
+  </si>
+  <si>
+    <t>connector (KQ2H04-02NS)</t>
+  </si>
+  <si>
+    <t>EST-C0018</t>
+  </si>
+  <si>
+    <t>connector (KQ2H06-02NS)</t>
+  </si>
+  <si>
+    <t>EST-C0019</t>
+  </si>
+  <si>
+    <t>connector (KQ2L04-02GS1)</t>
+  </si>
+  <si>
+    <t>EST-C0020</t>
+  </si>
+  <si>
+    <t>connector (KQ2H06-08A)</t>
+  </si>
+  <si>
+    <t>EST-C0026</t>
+  </si>
+  <si>
+    <t>Connector (KQ2R04-06A)</t>
+  </si>
+  <si>
+    <t>EST-C0027</t>
+  </si>
+  <si>
+    <t>sound damper</t>
+  </si>
+  <si>
+    <t>EST-H0032</t>
+  </si>
+  <si>
+    <t>SMC pressure sensor</t>
+  </si>
+  <si>
+    <t>EST-S0033</t>
   </si>
   <si>
     <t>SMC pressure regulator</t>
   </si>
   <si>
-    <t>SMC pressure sensor</t>
-  </si>
-  <si>
-    <t>Large water tank pvc</t>
-  </si>
-  <si>
-    <t>Measuring cup 3L</t>
-  </si>
-  <si>
-    <t>Pressure tank</t>
-  </si>
-  <si>
-    <t>12V 1A DC 5.5-2.5</t>
-  </si>
-  <si>
-    <t>Aliexpress</t>
-  </si>
-  <si>
-    <t>Arduino prototyping board</t>
-  </si>
-  <si>
-    <t>Arduino UNO</t>
-  </si>
-  <si>
-    <t>https://store.arduino.cc/en-nl/products/arduino-uno-rev3?srsltid=AfmBOoqV6nKlv28zGLP7TRCnfL7lt0ZwXx8Yo48ohQyyKPPxEWplbDm5</t>
-  </si>
-  <si>
-    <t>On board</t>
-  </si>
-  <si>
-    <t>EST-E0002</t>
-  </si>
-  <si>
-    <t>EST-E0001</t>
-  </si>
-  <si>
-    <t>Measuring water flow</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t>DS18B20 </t>
-  </si>
-  <si>
-    <t>https://www.bitsandparts.nl/Temperatuursensor-1-wire-Waterdicht-Dallas-DS18B20-2-meter-p109707</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Water tank with inlet (and outlet)</t>
-  </si>
-  <si>
-    <t>max ….bar</t>
-  </si>
-  <si>
-    <t>Only for air (not for water) max …bar</t>
-  </si>
-  <si>
-    <t>SMC Air flow sensor ( PF2A521-F03-1 )</t>
-  </si>
-  <si>
-    <t>Only air (pressure is ab</t>
-  </si>
-  <si>
-    <t>PF2A521.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 to 24V DC 2A. </t>
-  </si>
-  <si>
-    <t>Motor with adjustable gear ratios. Max 24v</t>
-  </si>
-  <si>
-    <t>on board</t>
-  </si>
-  <si>
-    <t>Beschikbaar</t>
-  </si>
-  <si>
-    <t>EST-S0004</t>
-  </si>
-  <si>
-    <t>EST-S0003</t>
-  </si>
-  <si>
-    <t>HB</t>
-  </si>
-  <si>
-    <t>EST-H0005</t>
-  </si>
-  <si>
-    <t>EST-H0006</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>EST-C0008</t>
-  </si>
-  <si>
-    <t>EST-G0007</t>
-  </si>
-  <si>
-    <t>EST-G0009</t>
-  </si>
-  <si>
-    <t>EST-H0010</t>
-  </si>
-  <si>
-    <t>EST-E0012</t>
-  </si>
-  <si>
-    <t>EST-E0013</t>
-  </si>
-  <si>
-    <t>EST-E0014</t>
-  </si>
-  <si>
-    <t>EST-E0016</t>
-  </si>
-  <si>
-    <t>EST-H0015</t>
-  </si>
-  <si>
-    <t>EST-H0017</t>
-  </si>
-  <si>
-    <t>EST-C0018</t>
-  </si>
-  <si>
-    <t>EST-C0019</t>
-  </si>
-  <si>
-    <t>EST-C0020</t>
-  </si>
-  <si>
-    <t>EST-C0021</t>
-  </si>
-  <si>
-    <t>EST-C0022</t>
-  </si>
-  <si>
-    <t>EST-C0023</t>
-  </si>
-  <si>
-    <t>EST-C0024</t>
-  </si>
-  <si>
-    <t>EST-C0025</t>
-  </si>
-  <si>
-    <t>EST-C0026</t>
-  </si>
-  <si>
-    <t>EST-C0027</t>
-  </si>
-  <si>
-    <t>EST-C0028</t>
-  </si>
-  <si>
-    <t>EST-C0029</t>
-  </si>
-  <si>
-    <t>EST-C0030</t>
-  </si>
-  <si>
-    <t>EST-C0031</t>
-  </si>
-  <si>
-    <t>EST-H0032</t>
-  </si>
-  <si>
-    <t>EST-S0033</t>
+    <t>set at 6 bar</t>
   </si>
   <si>
     <t>EST-H0034</t>
   </si>
   <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>HB+Aliexpress</t>
-  </si>
-  <si>
-    <t>3D</t>
+    <t>Teflon tape</t>
+  </si>
+  <si>
+    <t>load cell</t>
+  </si>
+  <si>
+    <t>nut water tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+  </si>
+  <si>
+    <t>Rubber sealing washer</t>
+  </si>
+  <si>
+    <t>breadboard</t>
+  </si>
+  <si>
+    <t>resistors</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>heat controller</t>
+  </si>
+  <si>
+    <t>connector temperature sensor</t>
+  </si>
+  <si>
+    <t>aluminium block</t>
+  </si>
+  <si>
+    <t>aluminium block holder</t>
+  </si>
+  <si>
+    <t>insulation disks</t>
+  </si>
+  <si>
+    <t>heating element</t>
+  </si>
+  <si>
+    <t>Pneumatic</t>
+  </si>
+  <si>
+    <t>4 (2x2) +1x(4x2)</t>
+  </si>
+  <si>
+    <t>var power supp</t>
   </si>
   <si>
     <t>6 (2x2)</t>
@@ -277,146 +421,23 @@
     <t>teflon</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">' </t>
+  </si>
+  <si>
     <t>kleinpvc tankje</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">' </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>var power supp</t>
-  </si>
-  <si>
-    <t>4 (2x2) +1x(4x2)</t>
-  </si>
-  <si>
-    <t>Adjustable Power Supply</t>
-  </si>
-  <si>
-    <t>DC Motor</t>
-  </si>
-  <si>
-    <t>massa with acceleration sensor</t>
-  </si>
-  <si>
-    <t>Power Sensor for DC Motor</t>
-  </si>
-  <si>
-    <t>Motor Drum</t>
-  </si>
-  <si>
-    <t>Jerrycan</t>
-  </si>
-  <si>
-    <t>waterpump</t>
-  </si>
-  <si>
-    <t>Teflon tape</t>
-  </si>
-  <si>
-    <t>water tank holder ring (Replaced by new)</t>
-  </si>
-  <si>
-    <t>Connector (WNX-02-F02V-F02V-F02V)</t>
-  </si>
-  <si>
-    <t>Connector (WNT-F02V-02-F02V)</t>
-  </si>
-  <si>
-    <t>Connector (WNH-F03-F02V)</t>
-  </si>
-  <si>
-    <t>Connector (WNH-F02-F03)</t>
-  </si>
-  <si>
-    <t>Connector (WNH-04-F2V)</t>
-  </si>
-  <si>
-    <t>Connector (WNH-02-02)</t>
-  </si>
-  <si>
-    <t>Connector (AKH06A CHECKA)</t>
-  </si>
-  <si>
-    <t>Connector (AKH06B CHECKB)</t>
-  </si>
-  <si>
-    <t>Connector (KQ2H04-02NS)</t>
-  </si>
-  <si>
-    <t>Connector (KQ2H06-02NS)</t>
-  </si>
-  <si>
-    <t>Connector (KQ2L04-02GS1)</t>
-  </si>
-  <si>
-    <t>Connector (KQ2H06-08A)</t>
-  </si>
-  <si>
-    <t>Connector (KQ2R04-06A)</t>
-  </si>
-  <si>
-    <t>Connector (onbekend1-1)</t>
-  </si>
-  <si>
-    <t>Connector (moerpvc past f02v)</t>
-  </si>
-  <si>
-    <t>Damper</t>
-  </si>
-  <si>
-    <t>Connector (KQ2H06-02NS Dubbel?????)</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Broken</t>
-  </si>
-  <si>
-    <t>Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pneumatic </t>
-  </si>
-  <si>
-    <t>Hydraulic</t>
-  </si>
-  <si>
-    <t>Thermal</t>
-  </si>
-  <si>
-    <t>Pneumatic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,24 +467,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -483,9 +498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,8 +570,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}" name="Table1" displayName="Table1" ref="A1:N40" totalsRowShown="0">
-  <autoFilter ref="A1:N40" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}" name="Table1" displayName="Table1" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{E99DB23D-5EA5-5245-8B4B-981E39D03E25}" name="Name"/>
     <tableColumn id="2" xr3:uid="{8239B4C0-BCF3-0445-B10A-C84239A2EF89}" name="Description"/>
@@ -898,96 +913,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3983C56F-212F-4EB6-9B74-522C3257755A}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C23" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <f>80+27</f>
+        <v>107</v>
       </c>
       <c r="H2">
         <f>G2-J2-I2</f>
-        <v>-16</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <f>K2*Toolboxes!B$1+L2*Toolboxes!B$2+M2*Toolboxes!B$3+N2*Toolboxes!B$4</f>
@@ -1006,24 +1022,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -1049,31 +1065,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <f xml:space="preserve"> 20 + 12</f>
+        <v>32</v>
       </c>
       <c r="H4">
         <f>G4-J4-I4</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <f>K4*Toolboxes!B$1+L4*Toolboxes!B$2+M4*Toolboxes!B$3+N4*Toolboxes!B$4</f>
@@ -1083,49 +1097,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>18</v>
       </c>
       <c r="H5">
         <f>G5-J5-I5</f>
-        <v>18</v>
+        <v>-22</v>
       </c>
       <c r="I5">
-        <f>K5*Toolboxes!B$1+L5*Toolboxes!B$2+M5*Toolboxes!B$3+N5*Toolboxes!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -1142,34 +1158,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>93</v>
-      </c>
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>21</v>
       </c>
       <c r="H7">
         <f>G7-J7-I7</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f>K7*Toolboxes!B$1+L7*Toolboxes!B$2+M7*Toolboxes!B$3+N7*Toolboxes!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1183,40 +1202,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <f>G9-J9-I9</f>
+        <v>0</v>
       </c>
       <c r="I9">
-        <f>K9*Toolboxes!B$1+L9*Toolboxes!B$2+M9*Toolboxes!B$3+N9*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H11" si="0">G10-J10-I10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
       <c r="I10">
-        <f>K10*Toolboxes!B$1+L10*Toolboxes!B$2+M10*Toolboxes!B$3+N10*Toolboxes!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>75</v>
+        <f>80+35</f>
+        <v>115</v>
       </c>
       <c r="H11">
-        <f>G11-J11-I11</f>
-        <v>-5</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="I11">
         <f>K11*Toolboxes!B$1+L11*Toolboxes!B$2+M11*Toolboxes!B$3+N11*Toolboxes!B$4</f>
@@ -1229,15 +1262,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1251,25 +1282,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G13">
-        <v>32</v>
+        <f xml:space="preserve"> 40 + 6</f>
+        <v>46</v>
       </c>
       <c r="H13">
         <f>G13-J13-I13</f>
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <f>K13*Toolboxes!B$1+L13*Toolboxes!B$2+M13*Toolboxes!B$3+N13*Toolboxes!B$4</f>
@@ -1279,24 +1311,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1310,28 +1339,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <f>20+2</f>
+        <v>22</v>
       </c>
       <c r="H15">
         <f>G15-J15-I15</f>
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <f>K15*Toolboxes!B$1+L15*Toolboxes!B$2+M15*Toolboxes!B$3+N15*Toolboxes!B$4</f>
@@ -1341,24 +1371,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G16">
         <v>24</v>
@@ -1375,15 +1405,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>24</v>
@@ -1400,15 +1430,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>45</v>
@@ -1425,22 +1455,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <f>20+1</f>
+        <v>21</v>
       </c>
       <c r="H19">
         <f>G19-J19-I19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <f>K19*Toolboxes!B$1+L19*Toolboxes!B$2+M19*Toolboxes!B$3+N19*Toolboxes!B$4</f>
@@ -1450,15 +1481,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -1475,22 +1506,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21">
+        <f>40+28</f>
         <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>71</v>
       </c>
       <c r="H21">
         <f>G21-J21-I21</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I21">
         <f>K21*Toolboxes!B$1+L21*Toolboxes!B$2+M21*Toolboxes!B$3+N21*Toolboxes!B$4</f>
@@ -1503,22 +1535,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G22">
-        <v>81</v>
+        <f>40+38</f>
+        <v>78</v>
       </c>
       <c r="H22">
         <f>G22-J22-I22</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <f>K22*Toolboxes!B$1+L22*Toolboxes!B$2+M22*Toolboxes!B$3+N22*Toolboxes!B$4</f>
@@ -1531,22 +1564,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G23">
-        <v>83</v>
+        <f>40+32</f>
+        <v>72</v>
       </c>
       <c r="H23">
         <f>G23-J23-I23</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I23">
         <f>K23*Toolboxes!B$1+L23*Toolboxes!B$2+M23*Toolboxes!B$3+N23*Toolboxes!B$4</f>
@@ -1556,47 +1590,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <f>20+15</f>
+        <v>35</v>
       </c>
       <c r="H24">
         <f>G24-J24-I24</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I24">
         <f>K24*Toolboxes!B$1+L24*Toolboxes!B$2+M24*Toolboxes!B$3+N24*Toolboxes!B$4</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G25">
-        <v>75</v>
+        <f>80+29</f>
+        <v>109</v>
       </c>
       <c r="H25">
         <f>G25-J25-I25</f>
-        <v>-5</v>
+        <v>29</v>
       </c>
       <c r="I25">
         <f>K25*Toolboxes!B$1+L25*Toolboxes!B$2+M25*Toolboxes!B$3+N25*Toolboxes!B$4</f>
@@ -1606,22 +1642,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <f>40+18</f>
+        <v>58</v>
       </c>
       <c r="H26">
         <f>G26-J26-I26</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <f>K26*Toolboxes!B$1+L26*Toolboxes!B$2+M26*Toolboxes!B$3+N26*Toolboxes!B$4</f>
@@ -1631,22 +1668,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G27">
-        <v>41</v>
+        <f>40+11</f>
+        <v>51</v>
       </c>
       <c r="H27">
         <f>G27-J27-I27</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I27">
         <f>K27*Toolboxes!B$1+L27*Toolboxes!B$2+M27*Toolboxes!B$3+N27*Toolboxes!B$4</f>
@@ -1656,22 +1694,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <f>40+10</f>
+        <v>50</v>
       </c>
       <c r="H28">
         <f>G28-J28-I28</f>
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <f>K28*Toolboxes!B$1+L28*Toolboxes!B$2+M28*Toolboxes!B$3+N28*Toolboxes!B$4</f>
@@ -1681,22 +1720,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G29">
-        <v>70</v>
+        <f>80+2</f>
+        <v>82</v>
       </c>
       <c r="H29">
         <f>G29-J29-I29</f>
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <f>K29*Toolboxes!B$1+L29*Toolboxes!B$2+M29*Toolboxes!B$3+N29*Toolboxes!B$4</f>
@@ -1709,22 +1749,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="G30">
-        <v>87</v>
+        <f>80+24</f>
+        <v>104</v>
       </c>
       <c r="H30">
         <f>G30-J30-I30</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I30">
         <f>K30*Toolboxes!B$1+L30*Toolboxes!B$2+M30*Toolboxes!B$3+N30*Toolboxes!B$4</f>
@@ -1737,22 +1778,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="G31">
-        <v>89</v>
+        <f>80+8</f>
+        <v>88</v>
       </c>
       <c r="H31">
         <f>G31-J31-I31</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <f>K31*Toolboxes!B$1+L31*Toolboxes!B$2+M31*Toolboxes!B$3+N31*Toolboxes!B$4</f>
@@ -1765,50 +1807,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G32">
-        <v>110</v>
+        <f>100+12</f>
+        <v>112</v>
       </c>
       <c r="H32">
         <f>G32-J32-I32</f>
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I32">
         <f>K32*Toolboxes!B$1+L32*Toolboxes!B$2+M32*Toolboxes!B$3+N32*Toolboxes!B$4</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L32">
         <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <f>80+22</f>
+        <v>102</v>
       </c>
       <c r="H33">
         <f>G33-J33-I33</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I33">
         <f>K33*Toolboxes!B$1+L33*Toolboxes!B$2+M33*Toolboxes!B$3+N33*Toolboxes!B$4</f>
@@ -1821,16 +1865,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <f>G34-J34-I34</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I34">
         <f>K34*Toolboxes!B$1+L34*Toolboxes!B$2+M34*Toolboxes!B$3+N34*Toolboxes!B$4</f>
@@ -1840,33 +1890,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>14</v>
+        <f xml:space="preserve"> 40+1</f>
+        <v>41</v>
       </c>
       <c r="H35">
         <f>G35-J35-I35</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f>K35*Toolboxes!B$1+L35*Toolboxes!B$2+M35*Toolboxes!B$3+N35*Toolboxes!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="G36">
+        <f xml:space="preserve"> 20 + 16</f>
         <v>36</v>
       </c>
       <c r="H36">
@@ -1881,103 +1945,223 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="G37">
-        <v>38</v>
+        <f xml:space="preserve"> 40 + 4</f>
+        <v>44</v>
       </c>
       <c r="H37">
-        <f>G37-J37-I37</f>
-        <v>-2</v>
+        <f t="shared" ref="H37:H41" si="1">G37-J37-I37</f>
+        <v>4</v>
       </c>
       <c r="I37">
         <f>K37*Toolboxes!B$1+L37*Toolboxes!B$2+M37*Toolboxes!B$3+N37*Toolboxes!B$4</f>
         <v>40</v>
       </c>
       <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38">
+        <f xml:space="preserve"> 20 + 10</f>
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39">
+        <f>20+8</f>
+        <v>28</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40">
+        <f>20+13</f>
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41">
+        <v>21</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42">
+        <f>G42-J42-I42</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>K42*Toolboxes!B$1+L42*Toolboxes!B$2+M42*Toolboxes!B$3+N42*Toolboxes!B$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43">
+        <f>G43-J43-I43</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>K43*Toolboxes!B$1+L43*Toolboxes!B$2+M43*Toolboxes!B$3+N43*Toolboxes!B$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44">
+        <f>G44-J44-I44</f>
+        <v>-20</v>
+      </c>
+      <c r="I44">
+        <f>K44*Toolboxes!B$1+L44*Toolboxes!B$2+M44*Toolboxes!B$3+N44*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45">
+        <f>G45-J45-I45</f>
+        <v>-40</v>
+      </c>
+      <c r="I45">
+        <f>K45*Toolboxes!B$1+L45*Toolboxes!B$2+M45*Toolboxes!B$3+N45*Toolboxes!B$4</f>
+        <v>40</v>
+      </c>
+      <c r="N45">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38">
-        <v>34</v>
-      </c>
-      <c r="H38">
-        <f>G38-J38-I38</f>
-        <v>14</v>
-      </c>
-      <c r="I38">
-        <f>K38*Toolboxes!B$1+L38*Toolboxes!B$2+M38*Toolboxes!B$3+N38*Toolboxes!B$4</f>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46">
+        <f>G46-J46-I46</f>
+        <v>-20</v>
+      </c>
+      <c r="I46">
+        <f>K46*Toolboxes!B$1+L46*Toolboxes!B$2+M46*Toolboxes!B$3+N46*Toolboxes!B$4</f>
         <v>20</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39">
-        <v>46</v>
-      </c>
-      <c r="H39">
-        <f>G39-J39-I39</f>
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <f>K39*Toolboxes!B$1+L39*Toolboxes!B$2+M39*Toolboxes!B$3+N39*Toolboxes!B$4</f>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47">
+        <f>G47-J47-I47</f>
+        <v>-20</v>
+      </c>
+      <c r="I47">
+        <f>K47*Toolboxes!B$1+L47*Toolboxes!B$2+M47*Toolboxes!B$3+N47*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48">
+        <f>G48-J48-I48</f>
+        <v>-40</v>
+      </c>
+      <c r="I48">
+        <f>K48*Toolboxes!B$1+L48*Toolboxes!B$2+M48*Toolboxes!B$3+N48*Toolboxes!B$4</f>
         <v>40</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f>G40-J40-I40</f>
-        <v>-40</v>
-      </c>
-      <c r="I40">
-        <f>K40*Toolboxes!B$1+L40*Toolboxes!B$2+M40*Toolboxes!B$3+N40*Toolboxes!B$4</f>
-        <v>40</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
+      <c r="N48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49">
+        <f>G49-J49-I49</f>
+        <v>-20</v>
+      </c>
+      <c r="I49">
+        <f>K49*Toolboxes!B$1+L49*Toolboxes!B$2+M49*Toolboxes!B$3+N49*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N49">
         <v>1</v>
       </c>
     </row>
@@ -1991,7 +2175,7 @@
     <sortCondition ref="J1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H8 H48 H53:H56 H11:H40">
+  <conditionalFormatting sqref="H2:H52">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2005,7 +2189,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:N48 K53:N56 K2:N40">
+  <conditionalFormatting sqref="K2:N52">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2025,39 +2209,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87959254-01BC-824B-AB45-1EC51DD6A6CA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -2076,63 +2260,63 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2141,29 +2325,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0704D874BFE8C4BA1CCB7AF87CDE54E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c83cd483f575563d3f0c04cdc6fed73d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="12afa7dd-86f0-40a8-b14d-bfc2a9172e75" xmlns:ns4="a4501c78-21c2-4b72-8fb9-f32b0a8a90ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c2fa8342e2deafc943e0ec2d2dc446e" ns3:_="" ns4:_="">
-    <xsd:import namespace="12afa7dd-86f0-40a8-b14d-bfc2a9172e75"/>
-    <xsd:import namespace="a4501c78-21c2-4b72-8fb9-f32b0a8a90ae"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F5CB8A00F1A0841B3F9E89D33680BD0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c000b4385f70b7b1f84268cc1d8b6f4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c43a8398-59d6-4544-8889-d61e38456917" xmlns:ns3="5290365f-c8d6-40d0-b44a-6be08a8a62f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66dbeb20f29d81400e6a07d4788d4730" ns2:_="" ns3:_="">
+    <xsd:import namespace="c43a8398-59d6-4544-8889-d61e38456917"/>
+    <xsd:import namespace="5290365f-c8d6-40d0-b44a-6be08a8a62f3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2171,7 +2359,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="12afa7dd-86f0-40a8-b14d-bfc2a9172e75" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c43a8398-59d6-4544-8889-d61e38456917" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2184,53 +2372,77 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_activity" ma:index="10" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="17" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5f80264a-99e7-47cd-820c-3e92ce78c5e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a4501c78-21c2-4b72-8fb9-f32b0a8a90ae" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5290365f-c8d6-40d0-b44a-6be08a8a62f3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2249,17 +2461,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bb11496c-1b5c-4cf2-8a77-78a49b0fcafa}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5290365f-c8d6-40d0-b44a-6be08a8a62f3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2373,51 +2591,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_activity xmlns="12afa7dd-86f0-40a8-b14d-bfc2a9172e75" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38590561-ACB2-4C63-B858-AF7A4ED8BB90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="12afa7dd-86f0-40a8-b14d-bfc2a9172e75"/>
-    <ds:schemaRef ds:uri="a4501c78-21c2-4b72-8fb9-f32b0a8a90ae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a4501c78-21c2-4b72-8fb9-f32b0a8a90ae"/>
-    <ds:schemaRef ds:uri="12afa7dd-86f0-40a8-b14d-bfc2a9172e75"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}"/>
 </file>
--- a/data/components.xlsx
+++ b/data/components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4GB00_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4CBLA30_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{A2AE6154-438B-2B4E-97D2-09BB0C0E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76915D7D-EB69-4A59-A7AB-F28DBA65D61F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8AE6ED-5DE8-AE47-95B8-9E04A27CF08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="1" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -82,31 +82,64 @@
     <t>Thermal</t>
   </si>
   <si>
-    <t>group power supply</t>
+    <t>group board</t>
+  </si>
+  <si>
+    <t>including PCB</t>
+  </si>
+  <si>
+    <t>EST-E0001</t>
+  </si>
+  <si>
+    <t>Arduino UNO</t>
+  </si>
+  <si>
+    <t>Arduino prototyping board</t>
+  </si>
+  <si>
+    <t>On board</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>EST-E0002</t>
+  </si>
+  <si>
+    <t>power supply</t>
   </si>
   <si>
     <t>12V 1A DC 5.5-2.5</t>
   </si>
   <si>
-    <t>Aliexpress</t>
-  </si>
-  <si>
-    <t>EST-E0001</t>
-  </si>
-  <si>
-    <t>Arduino UNO</t>
-  </si>
-  <si>
-    <t>Arduino prototyping board</t>
-  </si>
-  <si>
-    <t>https://store.arduino.cc/en-nl/products/arduino-uno-rev3?srsltid=AfmBOoqV6nKlv28zGLP7TRCnfL7lt0ZwXx8Yo48ohQyyKPPxEWplbDm5</t>
-  </si>
-  <si>
-    <t>On board</t>
-  </si>
-  <si>
-    <t>EST-E0002</t>
+    <t>EST-E0003</t>
+  </si>
+  <si>
+    <t>adjustable powers supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 to 24V DC 2A. </t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>EST-E0004</t>
+  </si>
+  <si>
+    <t>power supply thermal</t>
+  </si>
+  <si>
+    <t>EST-E0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS18B20 </t>
+  </si>
+  <si>
+    <t>EST-S0001</t>
   </si>
   <si>
     <t>water flow sensor</t>
@@ -115,24 +148,210 @@
     <t>measure water flow</t>
   </si>
   <si>
+    <t>EST-S0002</t>
+  </si>
+  <si>
+    <t>ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>measure distance</t>
+  </si>
+  <si>
     <t>EST-S0003</t>
   </si>
   <si>
-    <t xml:space="preserve">temperature sensor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS18B20 </t>
-  </si>
-  <si>
-    <t>https://www.bitsandparts.nl/Temperatuursensor-1-wire-Waterdicht-Dallas-DS18B20-2-meter-p109707</t>
-  </si>
-  <si>
-    <t>Internet</t>
+    <t>air flow sensor ( PF2A521-F03-1 )</t>
+  </si>
+  <si>
+    <t>PF2A521.pdf</t>
+  </si>
+  <si>
+    <t>SMC</t>
   </si>
   <si>
     <t>EST-S0004</t>
   </si>
   <si>
+    <t>SMC pressure sensor</t>
+  </si>
+  <si>
+    <t>EST-S0005</t>
+  </si>
+  <si>
+    <t>power sensor for DC Motor</t>
+  </si>
+  <si>
+    <t>EST-S0006</t>
+  </si>
+  <si>
+    <t>light slot sensor</t>
+  </si>
+  <si>
+    <t>EST-S0007</t>
+  </si>
+  <si>
+    <t>acceleration sensor</t>
+  </si>
+  <si>
+    <t>EST-S0008</t>
+  </si>
+  <si>
+    <t>connector (WNX-02-F02V-F02V-F02V)</t>
+  </si>
+  <si>
+    <t>EST-C0001</t>
+  </si>
+  <si>
+    <t>connector (WNT-F02V-02-F02V)</t>
+  </si>
+  <si>
+    <t>EST-C0002</t>
+  </si>
+  <si>
+    <t>connector (WNH-F03-F02V)</t>
+  </si>
+  <si>
+    <t>EST-C0003</t>
+  </si>
+  <si>
+    <t>connector (WNH-F02-F03)</t>
+  </si>
+  <si>
+    <t>EST-C0004</t>
+  </si>
+  <si>
+    <t>connector (WNH-04-F2V)</t>
+  </si>
+  <si>
+    <t>EST-C0005</t>
+  </si>
+  <si>
+    <t>connector (WNH-02-02)</t>
+  </si>
+  <si>
+    <t>EST-C0006</t>
+  </si>
+  <si>
+    <t>connector (AKH06A CHECKA)</t>
+  </si>
+  <si>
+    <t>EST-C0007</t>
+  </si>
+  <si>
+    <t>connector (AKH06B CHECKB)</t>
+  </si>
+  <si>
+    <t>EST-C0008</t>
+  </si>
+  <si>
+    <t>connector (KQ2H04-02NS)</t>
+  </si>
+  <si>
+    <t>EST-C0009</t>
+  </si>
+  <si>
+    <t>connector (KQ2H06-02NS)</t>
+  </si>
+  <si>
+    <t>EST-C0010</t>
+  </si>
+  <si>
+    <t>connector (KQ2L04-02GS1)</t>
+  </si>
+  <si>
+    <t>EST-C0011</t>
+  </si>
+  <si>
+    <t>connector (KQ2H06-08A)</t>
+  </si>
+  <si>
+    <t>EST-C0012</t>
+  </si>
+  <si>
+    <t>connector (KQ2R04-06A)</t>
+  </si>
+  <si>
+    <t>EST-C0013</t>
+  </si>
+  <si>
+    <t>connector (SOK 2X BI 3/8 CHROOM)</t>
+  </si>
+  <si>
+    <t>Hornbach</t>
+  </si>
+  <si>
+    <t>EST-C0014</t>
+  </si>
+  <si>
+    <t>connector (Draad messing plug)</t>
+  </si>
+  <si>
+    <t>EST-C0015</t>
+  </si>
+  <si>
+    <t>ball valve</t>
+  </si>
+  <si>
+    <t>EST-C0016</t>
+  </si>
+  <si>
+    <t>Teflon tape</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>EST-C0017</t>
+  </si>
+  <si>
+    <t>hose OD 4 mm</t>
+  </si>
+  <si>
+    <t>EST-C0018</t>
+  </si>
+  <si>
+    <t>hose OB 6 mm</t>
+  </si>
+  <si>
+    <t>EST-C0019</t>
+  </si>
+  <si>
+    <t>hose OD 8mm</t>
+  </si>
+  <si>
+    <t>EST-C0020</t>
+  </si>
+  <si>
+    <t>SMC pressure regulator</t>
+  </si>
+  <si>
+    <t>set at 6 bar</t>
+  </si>
+  <si>
+    <t>EST-P0001</t>
+  </si>
+  <si>
+    <t>sound damper</t>
+  </si>
+  <si>
+    <t>EST-P0002</t>
+  </si>
+  <si>
+    <t>pressure tank</t>
+  </si>
+  <si>
+    <t>max 6 bar</t>
+  </si>
+  <si>
+    <t>EST-P0003</t>
+  </si>
+  <si>
+    <t>bicycle pump</t>
+  </si>
+  <si>
+    <t>EST-P0004</t>
+  </si>
+  <si>
     <t>water tank pvc</t>
   </si>
   <si>
@@ -142,253 +361,148 @@
     <t>HB</t>
   </si>
   <si>
+    <t>EST-H0001</t>
+  </si>
+  <si>
+    <t>nut water tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+  </si>
+  <si>
+    <t>EST-H0002</t>
+  </si>
+  <si>
+    <t>Rubber sealing washer</t>
+  </si>
+  <si>
+    <t>EST-H0003</t>
+  </si>
+  <si>
+    <t>water tank holder</t>
+  </si>
+  <si>
+    <t>EST-H0004</t>
+  </si>
+  <si>
+    <t>ultrasonic sensor holder</t>
+  </si>
+  <si>
     <t>EST-H0005</t>
   </si>
   <si>
-    <t>water tank holder</t>
+    <t>waterpump</t>
   </si>
   <si>
     <t>EST-H0006</t>
   </si>
   <si>
+    <t>Jerrycan</t>
+  </si>
+  <si>
+    <t>EST-H0007</t>
+  </si>
+  <si>
     <t>measuring cup 3L</t>
   </si>
   <si>
+    <t>EST-H0008</t>
+  </si>
+  <si>
+    <t>DC Motor</t>
+  </si>
+  <si>
+    <t>Motor with adjustable gear ratios. Max 24v</t>
+  </si>
+  <si>
+    <t>on board</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>EST-G0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass </t>
+  </si>
+  <si>
+    <t>EST-G0002</t>
+  </si>
+  <si>
+    <t>drum set</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>EST-G0003</t>
+  </si>
+  <si>
+    <t>load cell (DCjack to terminal)</t>
+  </si>
+  <si>
+    <t>EST-G0004</t>
+  </si>
+  <si>
+    <t>breadboard</t>
+  </si>
+  <si>
+    <t>EST-G0005</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>EST-G0006</t>
+  </si>
+  <si>
+    <t>resistors</t>
+  </si>
+  <si>
     <t>EST-G0007</t>
   </si>
   <si>
-    <t>Jerrycan</t>
-  </si>
-  <si>
-    <t>waterpump</t>
-  </si>
-  <si>
-    <t>ball valve</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>EST-C0008</t>
-  </si>
-  <si>
-    <t>bicycle pump</t>
-  </si>
-  <si>
-    <t>EST-G0009</t>
-  </si>
-  <si>
-    <t>pressure tank</t>
-  </si>
-  <si>
-    <t>max 6 bar</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>EST-H0010</t>
-  </si>
-  <si>
-    <t>air flow sensor ( PF2A521-F03-1 )</t>
-  </si>
-  <si>
-    <t>PF2A521.pdf</t>
-  </si>
-  <si>
-    <t>adjustable powers supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 to 24V DC 2A. </t>
-  </si>
-  <si>
-    <t>EST-E0012</t>
-  </si>
-  <si>
-    <t>DC Motor</t>
-  </si>
-  <si>
-    <t>Motor with adjustable gear ratios. Max 24v</t>
-  </si>
-  <si>
-    <t>on board</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>EST-E0013</t>
-  </si>
-  <si>
-    <t>light slot sensor</t>
-  </si>
-  <si>
-    <t>EST-E0014</t>
-  </si>
-  <si>
-    <t>mass with acceleration sensor</t>
-  </si>
-  <si>
-    <t>HB+Aliexpress</t>
-  </si>
-  <si>
-    <t>EST-H0015</t>
-  </si>
-  <si>
-    <t>power sensor for DC Motor</t>
-  </si>
-  <si>
-    <t>EST-E0016</t>
-  </si>
-  <si>
-    <t>drum set</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>EST-H0017</t>
-  </si>
-  <si>
-    <t>connector (WNX-02-F02V-F02V-F02V)</t>
-  </si>
-  <si>
-    <t>EST-C0031</t>
-  </si>
-  <si>
-    <t>connector (WNT-F02V-02-F02V)</t>
-  </si>
-  <si>
-    <t>EST-C0030</t>
-  </si>
-  <si>
-    <t>connector (WNH-F03-F02V)</t>
-  </si>
-  <si>
-    <t>EST-C0024</t>
-  </si>
-  <si>
-    <t>connector (WNH-F02-F03)</t>
-  </si>
-  <si>
-    <t>EST-C0028</t>
-  </si>
-  <si>
-    <t>connector (WNH-04-F2V)</t>
-  </si>
-  <si>
-    <t>EST-C0029</t>
-  </si>
-  <si>
-    <t>connector (WNH-02-02)</t>
-  </si>
-  <si>
-    <t>EST-C0023</t>
-  </si>
-  <si>
-    <t>connector (AKH06A CHECKA)</t>
-  </si>
-  <si>
-    <t>EST-C0021</t>
-  </si>
-  <si>
-    <t>connector (AKH06B CHECKB)</t>
-  </si>
-  <si>
-    <t>EST-C0022</t>
-  </si>
-  <si>
-    <t>connector (KQ2H04-02NS)</t>
-  </si>
-  <si>
-    <t>EST-C0018</t>
-  </si>
-  <si>
-    <t>connector (KQ2H06-02NS)</t>
-  </si>
-  <si>
-    <t>EST-C0019</t>
-  </si>
-  <si>
-    <t>connector (KQ2L04-02GS1)</t>
-  </si>
-  <si>
-    <t>EST-C0020</t>
-  </si>
-  <si>
-    <t>connector (KQ2H06-08A)</t>
-  </si>
-  <si>
-    <t>EST-C0026</t>
-  </si>
-  <si>
-    <t>Connector (KQ2R04-06A)</t>
-  </si>
-  <si>
-    <t>EST-C0027</t>
-  </si>
-  <si>
-    <t>sound damper</t>
-  </si>
-  <si>
-    <t>EST-H0032</t>
-  </si>
-  <si>
-    <t>SMC pressure sensor</t>
-  </si>
-  <si>
-    <t>EST-S0033</t>
-  </si>
-  <si>
-    <t>SMC pressure regulator</t>
-  </si>
-  <si>
-    <t>set at 6 bar</t>
-  </si>
-  <si>
-    <t>EST-H0034</t>
-  </si>
-  <si>
-    <t>Teflon tape</t>
-  </si>
-  <si>
-    <t>load cell</t>
-  </si>
-  <si>
-    <t>nut water tank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	</t>
-  </si>
-  <si>
-    <t>Rubber sealing washer</t>
-  </si>
-  <si>
-    <t>breadboard</t>
-  </si>
-  <si>
-    <t>resistors</t>
-  </si>
-  <si>
-    <t>rope</t>
-  </si>
-  <si>
     <t>heat controller</t>
   </si>
   <si>
-    <t>connector temperature sensor</t>
+    <t>EST-T0001</t>
   </si>
   <si>
     <t>aluminium block</t>
   </si>
   <si>
+    <t>EST-T0002</t>
+  </si>
+  <si>
     <t>aluminium block holder</t>
   </si>
   <si>
+    <t>EST-T0003</t>
+  </si>
+  <si>
+    <t>heating element</t>
+  </si>
+  <si>
+    <t>EST-T0004</t>
+  </si>
+  <si>
     <t>insulation disks</t>
   </si>
   <si>
-    <t>heating element</t>
+    <t>EST-T0005</t>
+  </si>
+  <si>
+    <t>temperature sensor to terminal</t>
+  </si>
+  <si>
+    <t>EST-T0006</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>EST-T0007</t>
   </si>
   <si>
     <t>Pneumatic</t>
@@ -431,13 +545,19 @@
   </si>
   <si>
     <t>kleinpvc tankje</t>
+  </si>
+  <si>
+    <t>(documentation,https://docs.arduino.cc/hardware/uno-rev3/)</t>
+  </si>
+  <si>
+    <t>(specsheet,https://www.tinytronics.nl/product_files/000946_DS18B20_datasheet.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,13 +614,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,9 +688,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}" name="Table1" displayName="Table1" ref="A1:N49" totalsRowShown="0">
-  <autoFilter ref="A1:N49" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}" name="Table1" displayName="Table1" ref="A1:N60" totalsRowShown="0">
+  <autoFilter ref="A1:N60" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{E99DB23D-5EA5-5245-8B4B-981E39D03E25}" name="Name"/>
     <tableColumn id="2" xr3:uid="{8239B4C0-BCF3-0445-B10A-C84239A2EF89}" name="Description"/>
@@ -913,34 +1036,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3983C56F-212F-4EB6-9B74-522C3257755A}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C23" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N48" sqref="N48"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,68 +1107,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <f>80+27</f>
-        <v>107</v>
-      </c>
       <c r="H2">
-        <f>G2-J2-I2</f>
-        <v>27</v>
+        <f t="shared" ref="H2:H43" si="0">G2-J2-I2</f>
+        <v>0</v>
       </c>
       <c r="I2">
         <f>K2*Toolboxes!B$1+L2*Toolboxes!B$2+M2*Toolboxes!B$3+N2*Toolboxes!B$4</f>
-        <v>80</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3">
-        <f>G3-J3-I3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I3">
@@ -1065,707 +1169,729 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4">
+        <f>80+27</f>
+        <v>107</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I4">
+        <f>K4*Toolboxes!B$1+L4*Toolboxes!B$2+M4*Toolboxes!B$3+N4*Toolboxes!B$4</f>
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <f>20+1</f>
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>K5*Toolboxes!B$1+L5*Toolboxes!B$2+M5*Toolboxes!B$3+N5*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <f>K6*Toolboxes!B$1+L6*Toolboxes!B$2+M6*Toolboxes!B$3+N6*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
         <f xml:space="preserve"> 20 + 12</f>
         <v>32</v>
       </c>
-      <c r="H4">
-        <f>G4-J4-I4</f>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>12</v>
-      </c>
-      <c r="I4">
-        <f>K4*Toolboxes!B$1+L4*Toolboxes!B$2+M4*Toolboxes!B$3+N4*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <f>G5-J5-I5</f>
-        <v>-22</v>
-      </c>
-      <c r="I5">
-        <v>40</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <f>G6-J6-I6</f>
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <f>K6*Toolboxes!B$1+L6*Toolboxes!B$2+M6*Toolboxes!B$3+N6*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <v>21</v>
-      </c>
-      <c r="H7">
-        <f>G7-J7-I7</f>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <f>G8-J8-I8</f>
-        <v>5</v>
       </c>
       <c r="I8">
         <f>K8*Toolboxes!B$1+L8*Toolboxes!B$2+M8*Toolboxes!B$3+N8*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <f>G9-J9-I9</f>
+      <c r="I9">
+        <f>K9*Toolboxes!B$1+L9*Toolboxes!B$2+M9*Toolboxes!B$3+N9*Toolboxes!B$4</f>
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H11" si="0">G10-J10-I10</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f>K10*Toolboxes!B$1+L10*Toolboxes!B$2+M10*Toolboxes!B$3+N10*Toolboxes!B$4</f>
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>44</v>
+      </c>
       <c r="E11" t="s">
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <f>80+35</f>
-        <v>115</v>
+        <f xml:space="preserve"> 40+1</f>
+        <v>41</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f>K11*Toolboxes!B$1+L11*Toolboxes!B$2+M11*Toolboxes!B$3+N11*Toolboxes!B$4</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <f>20+1</f>
+        <v>21</v>
       </c>
       <c r="H12">
-        <f>G12-J12-I12</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I12">
         <f>K12*Toolboxes!B$1+L12*Toolboxes!B$2+M12*Toolboxes!B$3+N12*Toolboxes!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
       </c>
       <c r="G13">
-        <f xml:space="preserve"> 40 + 6</f>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <f>G13-J13-I13</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="I13">
         <f>K13*Toolboxes!B$1+L13*Toolboxes!B$2+M13*Toolboxes!B$3+N13*Toolboxes!B$4</f>
-        <v>40</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
       <c r="G14">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <f>G14-J14-I14</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="I14">
-        <f>K14*Toolboxes!B$1+L14*Toolboxes!B$2+M14*Toolboxes!B$3+N14*Toolboxes!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
       <c r="G15">
-        <f>20+2</f>
-        <v>22</v>
+        <f>40+28</f>
+        <v>68</v>
       </c>
       <c r="H15">
-        <f>G15-J15-I15</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="I15">
         <f>K15*Toolboxes!B$1+L15*Toolboxes!B$2+M15*Toolboxes!B$3+N15*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
       <c r="G16">
-        <v>24</v>
+        <f>40+38</f>
+        <v>78</v>
       </c>
       <c r="H16">
-        <f>G16-J16-I16</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="I16">
         <f>K16*Toolboxes!B$1+L16*Toolboxes!B$2+M16*Toolboxes!B$3+N16*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <f>40+32</f>
+        <v>72</v>
       </c>
       <c r="H17">
-        <f>G17-J17-I17</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="I17">
         <f>K17*Toolboxes!B$1+L17*Toolboxes!B$2+M17*Toolboxes!B$3+N17*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G18">
-        <v>45</v>
+        <f>20+16</f>
+        <v>36</v>
       </c>
       <c r="H18">
-        <f>G18-J18-I18</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>-44</v>
       </c>
       <c r="I18">
         <f>K18*Toolboxes!B$1+L18*Toolboxes!B$2+M18*Toolboxes!B$3+N18*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <f>20+1</f>
-        <v>21</v>
+        <f>80+29</f>
+        <v>109</v>
       </c>
       <c r="H19">
-        <f>G19-J19-I19</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="I19">
         <f>K19*Toolboxes!B$1+L19*Toolboxes!B$2+M19*Toolboxes!B$3+N19*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>80</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <f>40+18</f>
+        <v>58</v>
       </c>
       <c r="H20">
-        <f>G20-J20-I20</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="I20">
         <f>K20*Toolboxes!B$1+L20*Toolboxes!B$2+M20*Toolboxes!B$3+N20*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G21">
-        <f>40+28</f>
-        <v>68</v>
+        <f>40+11</f>
+        <v>51</v>
       </c>
       <c r="H21">
-        <f>G21-J21-I21</f>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="I21">
         <f>K21*Toolboxes!B$1+L21*Toolboxes!B$2+M21*Toolboxes!B$3+N21*Toolboxes!B$4</f>
         <v>40</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G22">
-        <f>40+38</f>
-        <v>78</v>
+        <f>40+10</f>
+        <v>50</v>
       </c>
       <c r="H22">
-        <f>G22-J22-I22</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="I22">
         <f>K22*Toolboxes!B$1+L22*Toolboxes!B$2+M22*Toolboxes!B$3+N22*Toolboxes!B$4</f>
         <v>40</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G23">
-        <f>40+32</f>
-        <v>72</v>
+        <f>80+2</f>
+        <v>82</v>
       </c>
       <c r="H23">
-        <f>G23-J23-I23</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I23">
         <f>K23*Toolboxes!B$1+L23*Toolboxes!B$2+M23*Toolboxes!B$3+N23*Toolboxes!B$4</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G24">
-        <f>20+15</f>
-        <v>35</v>
+        <f>80+24</f>
+        <v>104</v>
       </c>
       <c r="H24">
-        <f>G24-J24-I24</f>
-        <v>-5</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="I24">
         <f>K24*Toolboxes!B$1+L24*Toolboxes!B$2+M24*Toolboxes!B$3+N24*Toolboxes!B$4</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G25">
-        <f>80+29</f>
-        <v>109</v>
+        <f>80+8</f>
+        <v>88</v>
       </c>
       <c r="H25">
-        <f>G25-J25-I25</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="I25">
         <f>K25*Toolboxes!B$1+L25*Toolboxes!B$2+M25*Toolboxes!B$3+N25*Toolboxes!B$4</f>
         <v>80</v>
       </c>
       <c r="L25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G26">
-        <f>40+18</f>
-        <v>58</v>
+        <f>100+12</f>
+        <v>112</v>
       </c>
       <c r="H26">
-        <f>G26-J26-I26</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="I26">
         <f>K26*Toolboxes!B$1+L26*Toolboxes!B$2+M26*Toolboxes!B$3+N26*Toolboxes!B$4</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G27">
-        <f>40+11</f>
-        <v>51</v>
+        <f>80+22</f>
+        <v>102</v>
       </c>
       <c r="H27">
-        <f>G27-J27-I27</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="I27">
         <f>K27*Toolboxes!B$1+L27*Toolboxes!B$2+M27*Toolboxes!B$3+N27*Toolboxes!B$4</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28">
-        <f>40+10</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H28">
-        <f>G28-J28-I28</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>-40</v>
       </c>
       <c r="I28">
-        <f>K28*Toolboxes!B$1+L28*Toolboxes!B$2+M28*Toolboxes!B$3+N28*Toolboxes!B$4</f>
         <v>40</v>
       </c>
       <c r="L28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29">
-        <f>80+2</f>
         <v>82</v>
       </c>
       <c r="H29">
-        <f>G29-J29-I29</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>-40</v>
       </c>
       <c r="I29">
-        <f>K29*Toolboxes!B$1+L29*Toolboxes!B$2+M29*Toolboxes!B$3+N29*Toolboxes!B$4</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G30">
-        <f>80+24</f>
-        <v>104</v>
+        <f>80+35</f>
+        <v>115</v>
       </c>
       <c r="H30">
-        <f>G30-J30-I30</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="I30">
         <f>K30*Toolboxes!B$1+L30*Toolboxes!B$2+M30*Toolboxes!B$3+N30*Toolboxes!B$4</f>
@@ -1778,290 +1904,303 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G31">
-        <f>80+8</f>
-        <v>88</v>
+        <f xml:space="preserve"> 40 + 4</f>
+        <v>44</v>
       </c>
       <c r="H31">
-        <f>G31-J31-I31</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="I31">
         <f>K31*Toolboxes!B$1+L31*Toolboxes!B$2+M31*Toolboxes!B$3+N31*Toolboxes!B$4</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32">
-        <f>100+12</f>
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H32">
-        <f>G32-J32-I32</f>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I32">
         <f>K32*Toolboxes!B$1+L32*Toolboxes!B$2+M32*Toolboxes!B$3+N32*Toolboxes!B$4</f>
-        <v>60</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33">
-        <f>80+22</f>
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H33">
-        <f>G33-J33-I33</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I33">
         <f>K33*Toolboxes!B$1+L33*Toolboxes!B$2+M33*Toolboxes!B$3+N33*Toolboxes!B$4</f>
-        <v>80</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="H34">
-        <f>G34-J34-I34</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I34">
         <f>K34*Toolboxes!B$1+L34*Toolboxes!B$2+M34*Toolboxes!B$3+N34*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G35">
-        <f xml:space="preserve"> 40+1</f>
-        <v>41</v>
+        <f xml:space="preserve"> 20 + 16</f>
+        <v>36</v>
       </c>
       <c r="H35">
-        <f>G35-J35-I35</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="I35">
         <f>K35*Toolboxes!B$1+L35*Toolboxes!B$2+M35*Toolboxes!B$3+N35*Toolboxes!B$4</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G36">
-        <f xml:space="preserve"> 20 + 16</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <f>G36-J36-I36</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>-6</v>
       </c>
       <c r="I36">
         <f>K36*Toolboxes!B$1+L36*Toolboxes!B$2+M36*Toolboxes!B$3+N36*Toolboxes!B$4</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
       </c>
       <c r="G37">
-        <f xml:space="preserve"> 40 + 4</f>
-        <v>44</v>
+        <f xml:space="preserve"> 40 + 6</f>
+        <v>46</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H41" si="1">G37-J37-I37</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="I37">
         <f>K37*Toolboxes!B$1+L37*Toolboxes!B$2+M37*Toolboxes!B$3+N37*Toolboxes!B$4</f>
         <v>40</v>
       </c>
       <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <f>K38*Toolboxes!B$1+L38*Toolboxes!B$2+M38*Toolboxes!B$3+N38*Toolboxes!B$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>104</v>
       </c>
-      <c r="G38">
-        <f xml:space="preserve"> 20 + 10</f>
-        <v>30</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>105</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>106</v>
       </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
       <c r="G39">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <f>K39*Toolboxes!B$1+L39*Toolboxes!B$2+M39*Toolboxes!B$3+N39*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40">
         <f>20+8</f>
         <v>28</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
+      <c r="H40">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I39">
-        <v>20</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40">
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41">
         <f>20+13</f>
         <v>33</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
+      <c r="H41">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41">
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42">
         <v>21</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>20</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="s">
-        <v>109</v>
-      </c>
       <c r="H42">
-        <f>G42-J42-I42</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I42">
-        <f>K42*Toolboxes!B$1+L42*Toolboxes!B$2+M42*Toolboxes!B$3+N42*Toolboxes!B$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
       </c>
       <c r="H43">
-        <f>G43-J43-I43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43">
@@ -2069,100 +2208,345 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="H44">
-        <f>G44-J44-I44</f>
-        <v>-20</v>
+        <f t="shared" ref="H44" si="1">G44-J44-I44</f>
+        <v>0</v>
       </c>
       <c r="I44">
-        <f>K44*Toolboxes!B$1+L44*Toolboxes!B$2+M44*Toolboxes!B$3+N44*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
       </c>
       <c r="H45">
         <f>G45-J45-I45</f>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <f>K45*Toolboxes!B$1+L45*Toolboxes!B$2+M45*Toolboxes!B$3+N45*Toolboxes!B$4</f>
-        <v>40</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="F46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
       </c>
       <c r="H46">
         <f>G46-J46-I46</f>
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <f>K46*Toolboxes!B$1+L46*Toolboxes!B$2+M46*Toolboxes!B$3+N46*Toolboxes!B$4</f>
-        <v>20</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
       </c>
       <c r="H47">
         <f>G47-J47-I47</f>
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <f>K47*Toolboxes!B$1+L47*Toolboxes!B$2+M47*Toolboxes!B$3+N47*Toolboxes!B$4</f>
         <v>20</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48">
+        <v>45</v>
       </c>
       <c r="H48">
         <f>G48-J48-I48</f>
-        <v>-40</v>
+        <v>25</v>
       </c>
       <c r="I48">
         <f>K48*Toolboxes!B$1+L48*Toolboxes!B$2+M48*Toolboxes!B$3+N48*Toolboxes!B$4</f>
-        <v>40</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
       </c>
       <c r="H49">
         <f>G49-J49-I49</f>
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <f>K49*Toolboxes!B$1+L49*Toolboxes!B$2+M49*Toolboxes!B$3+N49*Toolboxes!B$4</f>
         <v>20</v>
       </c>
-      <c r="N49">
-        <v>1</v>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50">
+        <f xml:space="preserve"> 20 + 10</f>
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50:H51" si="2">G50-J50-I50</f>
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51">
+        <v>21</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H60" si="3">G52-J52-I52</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>K52*Toolboxes!B$1+L52*Toolboxes!B$2+M52*Toolboxes!B$3+N52*Toolboxes!B$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>K53*Toolboxes!B$1+L53*Toolboxes!B$2+M53*Toolboxes!B$3+N53*Toolboxes!B$4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I54">
+        <f>K54*Toolboxes!B$1+L54*Toolboxes!B$2+M54*Toolboxes!B$3+N54*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I55">
+        <f>K55*Toolboxes!B$1+L55*Toolboxes!B$2+M55*Toolboxes!B$3+N55*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I56">
+        <f>K56*Toolboxes!B$1+L56*Toolboxes!B$2+M56*Toolboxes!B$3+N56*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="I57">
+        <f>K57*Toolboxes!B$1+L57*Toolboxes!B$2+M57*Toolboxes!B$3+N57*Toolboxes!B$4</f>
+        <v>20</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="I58">
+        <f>K58*Toolboxes!B$1+L58*Toolboxes!B$2+M58*Toolboxes!B$3+N58*Toolboxes!B$4</f>
+        <v>40</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
+        <v>152</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="I59">
+        <f>K59*Toolboxes!B$1+L59*Toolboxes!B$2+M59*Toolboxes!B$3+N59*Toolboxes!B$4</f>
+        <v>40</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" t="s">
+        <v>154</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>K60*Toolboxes!B$1+L60*Toolboxes!B$2+M60*Toolboxes!B$3+N60*Toolboxes!B$4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2559,7 @@
     <sortCondition ref="J1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H52">
+  <conditionalFormatting sqref="H3:H59">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2189,18 +2573,19 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N52">
+  <conditionalFormatting sqref="K3:N59">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{9FFC9E7B-A3BC-41DC-9E4A-9E1829241AA9}"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://www.bitsandparts.nl/Temperatuursensor-1-wire-Waterdicht-Dallas-DS18B20-2-meter-p109707" xr:uid="{9FFC9E7B-A3BC-41DC-9E4A-9E1829241AA9}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://store.arduino.cc/en-nl/products/arduino-uno-rev3?srsltid=AfmBOoqV6nKlv28zGLP7TRCnfL7lt0ZwXx8Yo48ohQyyKPPxEWplbDm5" xr:uid="{4CE510F4-6ECC-423C-9EBB-97213A3C5F59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2213,9 +2598,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2223,15 +2608,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2239,7 +2624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2260,63 +2645,63 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2325,6 +2710,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F5CB8A00F1A0841B3F9E89D33680BD0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c000b4385f70b7b1f84268cc1d8b6f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c43a8398-59d6-4544-8889-d61e38456917" xmlns:ns3="5290365f-c8d6-40d0-b44a-6be08a8a62f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66dbeb20f29d81400e6a07d4788d4730" ns2:_="" ns3:_="">
     <xsd:import namespace="c43a8398-59d6-4544-8889-d61e38456917"/>
@@ -2579,7 +2975,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2588,25 +2984,46 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="5290365f-c8d6-40d0-b44a-6be08a8a62f3"/>
+    <ds:schemaRef ds:uri="c43a8398-59d6-4544-8889-d61e38456917"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c43a8398-59d6-4544-8889-d61e38456917"/>
+    <ds:schemaRef ds:uri="5290365f-c8d6-40d0-b44a-6be08a8a62f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/components.xlsx
+++ b/data/components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cverhoosel/Documents/2_Education/4CBLA30_Energy_Storage_and_Transport/Energy-Storage-and-Transport.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl.sharepoint.com/sites/EST2020/Shared Documents/General/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF8AE6ED-5DE8-AE47-95B8-9E04A27CF08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3C9C8A-DF2C-4C76-8484-593F40E7B29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,9 @@
     <t>Arduino prototyping board</t>
   </si>
   <si>
+    <t>(documentation,https://docs.arduino.cc/hardware/uno-rev3/)</t>
+  </si>
+  <si>
     <t>On board</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t xml:space="preserve">DS18B20 </t>
   </si>
   <si>
+    <t>(specs,https://www.tinytronics.nl/product_files/000946_DS18B20_datasheet.pdf)</t>
+  </si>
+  <si>
     <t>EST-S0001</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>measure water flow</t>
   </si>
   <si>
+    <t>(specs, https://www.tinytronics.nl/en/sensors/liquid/yf-s401-water-flow-sensor)</t>
+  </si>
+  <si>
     <t>EST-S0002</t>
   </si>
   <si>
@@ -157,13 +166,16 @@
     <t>measure distance</t>
   </si>
   <si>
+    <t>(specs, https://www.tinytronics.nl/en/sensors/distance/ultrasonic-sensor-hy-srf05)</t>
+  </si>
+  <si>
     <t>EST-S0003</t>
   </si>
   <si>
     <t>air flow sensor ( PF2A521-F03-1 )</t>
   </si>
   <si>
-    <t>PF2A521.pdf</t>
+    <t>(specs,PF2A521.pdf)</t>
   </si>
   <si>
     <t>SMC</t>
@@ -175,24 +187,36 @@
     <t>SMC pressure sensor</t>
   </si>
   <si>
+    <t>(specs,PSE570.pdf)</t>
+  </si>
+  <si>
     <t>EST-S0005</t>
   </si>
   <si>
     <t>power sensor for DC Motor</t>
   </si>
   <si>
+    <t>(specs, https://nl.aliexpress.com/item/1005003819758065.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60501622654&amp;aff_fcid=8b74fdab2db5447b8ea76a0f14118359-1713377130251-01662-_EQtoqmV&amp;tt=MG&amp;aff_fsk=_EQtoqmV&amp;aff_platform=default&amp;sk=_EQtoqmV&amp;aff_trace_key=8b74fdab2db5447b8ea76a0f14118359-1713377130251-01662-_EQtoqmV&amp;shareId=60501622654&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=18a73b87c1d841e295dd3dd0d265d371&amp;afSmartRedirect=y&amp;gatewayAdapt=glo2nld)</t>
+  </si>
+  <si>
     <t>EST-S0006</t>
   </si>
   <si>
     <t>light slot sensor</t>
   </si>
   <si>
+    <t>(specs,https://www.tinytronics.nl/en/sensors/optical/light-slots/licht-slot-sensor-module-10mm)</t>
+  </si>
+  <si>
     <t>EST-S0007</t>
   </si>
   <si>
     <t>acceleration sensor</t>
   </si>
   <si>
+    <t>(specs,https://www.tinytronics.nl/en/sensors/acceleration-rotation/adxl345-digital-3-axis-accelerometer-module-v2)</t>
+  </si>
+  <si>
     <t>EST-S0008</t>
   </si>
   <si>
@@ -415,7 +439,7 @@
     <t>Motor with adjustable gear ratios. Max 24v</t>
   </si>
   <si>
-    <t>on board</t>
+    <t>(specs, https://nl.rs-online.com/web/p/dc-motors/2389822)</t>
   </si>
   <si>
     <t>RS</t>
@@ -545,19 +569,13 @@
   </si>
   <si>
     <t>kleinpvc tankje</t>
-  </si>
-  <si>
-    <t>(documentation,https://docs.arduino.cc/hardware/uno-rev3/)</t>
-  </si>
-  <si>
-    <t>(specsheet,https://www.tinytronics.nl/product_files/000946_DS18B20_datasheet.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,16 +610,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -609,17 +639,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,10 +729,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,30 +1079,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1126,24 +1165,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>169</v>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -1169,18 +1208,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <f>80+27</f>
@@ -1204,21 +1243,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <f>20+1</f>
@@ -1236,12 +1275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -1258,24 +1297,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -1291,21 +1330,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <f xml:space="preserve"> 20 + 12</f>
@@ -1323,15 +1365,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -1342,21 +1387,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1370,15 +1415,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <f xml:space="preserve"> 40+1</f>
@@ -1396,15 +1444,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <f>20+1</f>
@@ -1422,15 +1476,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -1447,15 +1507,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>45</v>
@@ -1471,15 +1537,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <f>40+28</f>
@@ -1500,15 +1566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <f>40+38</f>
@@ -1529,15 +1595,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G17">
         <f>40+32</f>
@@ -1555,15 +1621,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <f>20+16</f>
@@ -1581,15 +1647,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G19">
         <f>80+29</f>
@@ -1607,15 +1673,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G20">
         <f>40+18</f>
@@ -1633,15 +1699,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G21">
         <f>40+11</f>
@@ -1659,15 +1725,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <f>40+10</f>
@@ -1685,15 +1751,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G23">
         <f>80+2</f>
@@ -1714,15 +1780,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G24">
         <f>80+24</f>
@@ -1743,15 +1809,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G25">
         <f>80+8</f>
@@ -1772,15 +1838,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G26">
         <f>100+12</f>
@@ -1801,15 +1867,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G27">
         <f>80+22</f>
@@ -1830,15 +1896,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -1851,15 +1917,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -1875,15 +1941,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G30">
         <f>80+35</f>
@@ -1904,15 +1970,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G31">
         <f xml:space="preserve"> 40 + 4</f>
@@ -1933,15 +1999,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -1952,15 +2018,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -1971,15 +2037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -1990,18 +2056,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G35">
         <f xml:space="preserve"> 20 + 16</f>
@@ -2019,15 +2085,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G36">
         <v>34</v>
@@ -2044,18 +2110,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G37">
         <f xml:space="preserve"> 40 + 6</f>
@@ -2073,12 +2139,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2092,18 +2158,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G39">
         <v>25</v>
@@ -2120,15 +2186,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G40">
         <f>20+8</f>
@@ -2145,12 +2211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G41">
         <f>20+13</f>
@@ -2167,16 +2233,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1"/>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G42">
         <v>21</v>
@@ -2192,12 +2258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
@@ -2208,12 +2274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2226,12 +2292,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -2244,12 +2310,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -2263,24 +2329,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -2297,15 +2363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G48">
         <v>45</v>
@@ -2322,15 +2388,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G49">
         <v>22</v>
@@ -2347,12 +2413,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G50">
         <f xml:space="preserve"> 20 + 10</f>
@@ -2366,12 +2432,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G51">
         <v>21</v>
@@ -2387,12 +2453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H52">
         <f t="shared" ref="H52:H60" si="3">G52-J52-I52</f>
@@ -2403,12 +2469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
@@ -2419,12 +2485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H54">
         <f t="shared" si="3"/>
@@ -2438,12 +2504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H55">
         <f t="shared" si="3"/>
@@ -2457,12 +2523,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H56">
         <f t="shared" si="3"/>
@@ -2476,12 +2542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H57">
         <f t="shared" si="3"/>
@@ -2495,12 +2561,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H58">
         <f t="shared" si="3"/>
@@ -2514,12 +2580,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
@@ -2533,12 +2599,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H60">
         <f t="shared" si="3"/>
@@ -2580,7 +2646,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://www.bitsandparts.nl/Temperatuursensor-1-wire-Waterdicht-Dallas-DS18B20-2-meter-p109707" xr:uid="{9FFC9E7B-A3BC-41DC-9E4A-9E1829241AA9}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://store.arduino.cc/en-nl/products/arduino-uno-rev3?srsltid=AfmBOoqV6nKlv28zGLP7TRCnfL7lt0ZwXx8Yo48ohQyyKPPxEWplbDm5" xr:uid="{4CE510F4-6ECC-423C-9EBB-97213A3C5F59}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A50BE7E1-47D7-462A-B893-02FD9AA08531}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -2598,9 +2664,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2608,15 +2674,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2624,7 +2690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2645,63 +2711,63 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2710,17 +2776,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F5CB8A00F1A0841B3F9E89D33680BD0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c000b4385f70b7b1f84268cc1d8b6f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c43a8398-59d6-4544-8889-d61e38456917" xmlns:ns3="5290365f-c8d6-40d0-b44a-6be08a8a62f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66dbeb20f29d81400e6a07d4788d4730" ns2:_="" ns3:_="">
     <xsd:import namespace="c43a8398-59d6-4544-8889-d61e38456917"/>
@@ -2975,7 +3030,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2984,46 +3039,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5290365f-c8d6-40d0-b44a-6be08a8a62f3"/>
-    <ds:schemaRef ds:uri="c43a8398-59d6-4544-8889-d61e38456917"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c43a8398-59d6-4544-8889-d61e38456917"/>
-    <ds:schemaRef ds:uri="5290365f-c8d6-40d0-b44a-6be08a8a62f3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}"/>
 </file>
--- a/data/components.xlsx
+++ b/data/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl.sharepoint.com/sites/EST2020/Shared Documents/General/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3C9C8A-DF2C-4C76-8484-593F40E7B29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB619264-A553-483A-904D-2FCD51F732A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>air flow sensor ( PF2A521-F03-1 )</t>
+  </si>
+  <si>
+    <t>not in toolbox, can be borrowed from TA's</t>
   </si>
   <si>
     <t>(specs,PF2A521.pdf)</t>
@@ -1079,7 +1082,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1391,42 +1394,48 @@
       <c r="A10" t="s">
         <v>44</v>
       </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="I10">
         <f>K10*Toolboxes!B$1+L10*Toolboxes!B$2+M10*Toolboxes!B$3+N10*Toolboxes!B$4</f>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <f xml:space="preserve"> 40+1</f>
@@ -1446,10 +1455,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1458,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <f>20+1</f>
@@ -1478,10 +1487,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1490,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -1509,10 +1518,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1521,7 +1530,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>45</v>
@@ -1539,13 +1548,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <f>40+28</f>
@@ -1568,13 +1577,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <f>40+38</f>
@@ -1597,13 +1606,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <f>40+32</f>
@@ -1623,13 +1632,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18">
         <f>20+16</f>
@@ -1649,13 +1658,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <f>80+29</f>
@@ -1675,13 +1684,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20">
         <f>40+18</f>
@@ -1701,13 +1710,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21">
         <f>40+11</f>
@@ -1727,13 +1736,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <f>40+10</f>
@@ -1753,13 +1762,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23">
         <f>80+2</f>
@@ -1782,13 +1791,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <f>80+24</f>
@@ -1811,13 +1820,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25">
         <f>80+8</f>
@@ -1840,13 +1849,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26">
         <f>100+12</f>
@@ -1869,13 +1878,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27">
         <f>80+22</f>
@@ -1898,13 +1907,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -1919,13 +1928,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -1943,13 +1952,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30">
         <f>80+35</f>
@@ -1972,13 +1981,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G31">
         <f xml:space="preserve"> 40 + 4</f>
@@ -2001,13 +2010,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -2020,13 +2029,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -2039,13 +2048,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -2058,16 +2067,16 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35">
         <f xml:space="preserve"> 20 + 16</f>
@@ -2087,13 +2096,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G36">
         <v>34</v>
@@ -2112,16 +2121,16 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G37">
         <f xml:space="preserve"> 40 + 6</f>
@@ -2141,10 +2150,10 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2160,16 +2169,16 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G39">
         <v>25</v>
@@ -2188,13 +2197,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G40">
         <f>20+8</f>
@@ -2213,10 +2222,10 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41">
         <f>20+13</f>
@@ -2235,14 +2244,14 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="1"/>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G42">
         <v>21</v>
@@ -2260,10 +2269,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
@@ -2276,10 +2285,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2294,10 +2303,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -2312,10 +2321,10 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -2331,22 +2340,22 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -2365,13 +2374,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G48">
         <v>45</v>
@@ -2390,13 +2399,13 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G49">
         <v>22</v>
@@ -2415,10 +2424,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G50">
         <f xml:space="preserve"> 20 + 10</f>
@@ -2434,10 +2443,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G51">
         <v>21</v>
@@ -2455,10 +2464,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H52">
         <f t="shared" ref="H52:H60" si="3">G52-J52-I52</f>
@@ -2471,10 +2480,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
@@ -2487,10 +2496,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H54">
         <f t="shared" si="3"/>
@@ -2506,10 +2515,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H55">
         <f t="shared" si="3"/>
@@ -2525,10 +2534,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H56">
         <f t="shared" si="3"/>
@@ -2544,10 +2553,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H57">
         <f t="shared" si="3"/>
@@ -2563,10 +2572,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H58">
         <f t="shared" si="3"/>
@@ -2582,10 +2591,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
@@ -2601,10 +2610,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H60">
         <f t="shared" si="3"/>
@@ -2676,7 +2685,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2715,59 +2724,59 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" t="s">
-        <v>172</v>
-      </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/components.xlsx
+++ b/data/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl.sharepoint.com/sites/EST2020/Shared Documents/General/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB619264-A553-483A-904D-2FCD51F732A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{A2AE6154-438B-2B4E-97D2-09BB0C0E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94834596-4815-4F9C-A1FE-6CB83E2811C5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -199,7 +199,7 @@
     <t>power sensor for DC Motor</t>
   </si>
   <si>
-    <t>(specs, https://nl.aliexpress.com/item/1005003819758065.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60501622654&amp;aff_fcid=8b74fdab2db5447b8ea76a0f14118359-1713377130251-01662-_EQtoqmV&amp;tt=MG&amp;aff_fsk=_EQtoqmV&amp;aff_platform=default&amp;sk=_EQtoqmV&amp;aff_trace_key=8b74fdab2db5447b8ea76a0f14118359-1713377130251-01662-_EQtoqmV&amp;shareId=60501622654&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=18a73b87c1d841e295dd3dd0d265d371&amp;afSmartRedirect=y&amp;gatewayAdapt=glo2nld)</t>
+    <t>(specs, https://www.tinytronics.nl/nl/sensoren/stroom-spanning/ina3221-i2c-dc-stroom-en-spanningssensor-module-1.6a-3-kanalen)</t>
   </si>
   <si>
     <t>EST-S0006</t>
@@ -352,7 +352,7 @@
     <t>SMC pressure regulator</t>
   </si>
   <si>
-    <t>set at 6 bar</t>
+    <t>set at 5 bar</t>
   </si>
   <si>
     <t>EST-P0001</t>
@@ -361,13 +361,16 @@
     <t>sound damper</t>
   </si>
   <si>
+    <t>AN30-03</t>
+  </si>
+  <si>
     <t>EST-P0002</t>
   </si>
   <si>
     <t>pressure tank</t>
   </si>
   <si>
-    <t>max 6 bar</t>
+    <t>ATNL0010-SS, max 5 bar</t>
   </si>
   <si>
     <t>EST-P0003</t>
@@ -460,6 +463,9 @@
     <t>drum set</t>
   </si>
   <si>
+    <t>diameter 20, 30 and 40mm</t>
+  </si>
+  <si>
     <t>3D</t>
   </si>
   <si>
@@ -481,10 +487,16 @@
     <t>rope</t>
   </si>
   <si>
+    <t>2 m</t>
+  </si>
+  <si>
     <t>EST-G0006</t>
   </si>
   <si>
     <t>resistors</t>
+  </si>
+  <si>
+    <t>to be put in toolbox when used</t>
   </si>
   <si>
     <t>EST-G0007</t>
@@ -617,7 +629,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -664,8 +675,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1082,7 +1093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2098,11 +2109,14 @@
       <c r="A36" t="s">
         <v>106</v>
       </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
       <c r="E36" t="s">
         <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G36">
         <v>34</v>
@@ -2121,16 +2135,16 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G37">
         <f xml:space="preserve"> 40 + 6</f>
@@ -2150,10 +2164,10 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2169,16 +2183,16 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G39">
         <v>25</v>
@@ -2197,13 +2211,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G40">
         <f>20+8</f>
@@ -2222,10 +2236,10 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41">
         <f>20+13</f>
@@ -2244,14 +2258,14 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1"/>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42">
         <v>21</v>
@@ -2269,10 +2283,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
@@ -2285,10 +2299,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2303,10 +2317,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G45">
         <v>20</v>
@@ -2321,10 +2335,10 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -2340,22 +2354,22 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -2374,13 +2388,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G48">
         <v>45</v>
@@ -2399,13 +2413,16 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G49">
         <v>22</v>
@@ -2424,10 +2441,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G50">
         <f xml:space="preserve"> 20 + 10</f>
@@ -2443,10 +2460,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G51">
         <v>21</v>
@@ -2464,10 +2481,13 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H52">
         <f t="shared" ref="H52:H60" si="3">G52-J52-I52</f>
@@ -2480,10 +2500,13 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
@@ -2496,10 +2519,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H54">
         <f t="shared" si="3"/>
@@ -2515,10 +2538,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H55">
         <f t="shared" si="3"/>
@@ -2534,10 +2557,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H56">
         <f t="shared" si="3"/>
@@ -2553,10 +2576,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F57" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H57">
         <f t="shared" si="3"/>
@@ -2572,10 +2595,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F58" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H58">
         <f t="shared" si="3"/>
@@ -2591,10 +2614,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
@@ -2610,10 +2633,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H60">
         <f t="shared" si="3"/>
@@ -2685,7 +2708,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2724,59 +2747,59 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2785,6 +2808,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F5CB8A00F1A0841B3F9E89D33680BD0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c000b4385f70b7b1f84268cc1d8b6f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c43a8398-59d6-4544-8889-d61e38456917" xmlns:ns3="5290365f-c8d6-40d0-b44a-6be08a8a62f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66dbeb20f29d81400e6a07d4788d4730" ns2:_="" ns3:_="">
     <xsd:import namespace="c43a8398-59d6-4544-8889-d61e38456917"/>
@@ -3039,28 +3082,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3068,5 +3091,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
 </file>
--- a/data/components.xlsx
+++ b/data/components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl.sharepoint.com/sites/EST2020/Shared Documents/General/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{A2AE6154-438B-2B4E-97D2-09BB0C0E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94834596-4815-4F9C-A1FE-6CB83E2811C5}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{A2AE6154-438B-2B4E-97D2-09BB0C0E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF31467-76CC-480D-AB82-676A931DC92B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="184">
   <si>
     <t>Name</t>
   </si>
@@ -199,7 +199,7 @@
     <t>power sensor for DC Motor</t>
   </si>
   <si>
-    <t>(specs, https://www.tinytronics.nl/nl/sensoren/stroom-spanning/ina3221-i2c-dc-stroom-en-spanningssensor-module-1.6a-3-kanalen)</t>
+    <t>(specs, https://www.tinytronics.nl/nl/sensoren/stroom-spanning/ina3221-i2c-dc-stroom-en-spanningssensor-module-1.6a-3-kanalen);(code,https://gist.github.com/CVerhoosel/3b5a952a7eaee7f8d63b1722fe6c8f3f)</t>
   </si>
   <si>
     <t>EST-S0006</t>
@@ -502,7 +502,10 @@
     <t>EST-G0007</t>
   </si>
   <si>
-    <t>heat controller</t>
+    <t xml:space="preserve">heat controller </t>
+  </si>
+  <si>
+    <t>INA226 Voltage and Current Sensor</t>
   </si>
   <si>
     <t>EST-T0001</t>
@@ -532,7 +535,10 @@
     <t>EST-T0005</t>
   </si>
   <si>
-    <t>temperature sensor to terminal</t>
+    <t>Temperature Sensor Connector (jack to Screw-Terminal)</t>
+  </si>
+  <si>
+    <t>(Diagram,DS18B20_Connector_Diagram.png)</t>
   </si>
   <si>
     <t>EST-T0006</t>
@@ -747,7 +753,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}" name="Table1" displayName="Table1" ref="A1:N60" totalsRowShown="0">
-  <autoFilter ref="A1:N60" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}"/>
+  <autoFilter ref="A1:N60" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}">
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{E99DB23D-5EA5-5245-8B4B-981E39D03E25}" name="Name"/>
     <tableColumn id="2" xr3:uid="{8239B4C0-BCF3-0445-B10A-C84239A2EF89}" name="Description"/>
@@ -1093,10 +1105,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
@@ -1160,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1379,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1401,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1557,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1615,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1667,7 +1679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1771,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" hidden="1">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2105,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="4" t="s">
         <v>123</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2297,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -2411,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" t="s">
         <v>146</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -2521,8 +2533,11 @@
       <c r="A54" t="s">
         <v>154</v>
       </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
       <c r="F54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H54">
         <f t="shared" si="3"/>
@@ -2538,10 +2553,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H55">
         <f t="shared" si="3"/>
@@ -2557,10 +2572,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H56">
         <f t="shared" si="3"/>
@@ -2576,10 +2591,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H57">
         <f t="shared" si="3"/>
@@ -2595,10 +2610,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H58">
         <f t="shared" si="3"/>
@@ -2614,10 +2629,13 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
@@ -2631,12 +2649,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" hidden="1">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H60">
         <f t="shared" si="3"/>
@@ -2696,7 +2714,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2708,7 +2726,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -2743,63 +2761,63 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>177</v>
-      </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2808,17 +2826,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2827,7 +2834,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F5CB8A00F1A0841B3F9E89D33680BD0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c000b4385f70b7b1f84268cc1d8b6f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c43a8398-59d6-4544-8889-d61e38456917" xmlns:ns3="5290365f-c8d6-40d0-b44a-6be08a8a62f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66dbeb20f29d81400e6a07d4788d4730" ns2:_="" ns3:_="">
     <xsd:import namespace="c43a8398-59d6-4544-8889-d61e38456917"/>
@@ -3082,14 +3089,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c43a8398-59d6-4544-8889-d61e38456917">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5290365f-c8d6-40d0-b44a-6be08a8a62f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D6B607-A9B3-43F0-AF54-4344976BB527}"/>
 </file>
--- a/data/components.xlsx
+++ b/data/components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl.sharepoint.com/sites/EST2020/Shared Documents/General/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{A2AE6154-438B-2B4E-97D2-09BB0C0E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF31467-76CC-480D-AB82-676A931DC92B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E56573D-CC22-437F-BC87-D2DB009C66CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B795D2B2-84D1-4D57-9EC8-769A1489C68E}"/>
   </bookViews>
@@ -196,10 +196,10 @@
     <t>EST-S0005</t>
   </si>
   <si>
-    <t>power sensor for DC Motor</t>
-  </si>
-  <si>
-    <t>(specs, https://www.tinytronics.nl/nl/sensoren/stroom-spanning/ina3221-i2c-dc-stroom-en-spanningssensor-module-1.6a-3-kanalen);(code,https://gist.github.com/CVerhoosel/3b5a952a7eaee7f8d63b1722fe6c8f3f)</t>
+    <t>volatge and current sensor for DC Motor</t>
+  </si>
+  <si>
+    <t>(specs, https://www.tinytronics.nl/nl/sensoren/stroom-spanning/ina3221-i2c-dc-stroom-en-spanningssensor-module-1.6a-3-kanalen);(code,https://gist.github.com/CVerhoosel/3b5a952a7eaee7f8d63b1722fe6c8f3f);(lib,SDL_Arduino_INA3221.zip)</t>
   </si>
   <si>
     <t>EST-S0006</t>
@@ -538,7 +538,7 @@
     <t>Temperature Sensor Connector (jack to Screw-Terminal)</t>
   </si>
   <si>
-    <t>(Diagram,DS18B20_Connector_Diagram.png)</t>
+    <t>(diagram,DS18B20_Connector_Diagram.png)</t>
   </si>
   <si>
     <t>EST-T0006</t>
@@ -754,10 +754,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}" name="Table1" displayName="Table1" ref="A1:N60" totalsRowShown="0">
   <autoFilter ref="A1:N60" xr:uid="{7DC69B98-0BD3-6F4A-8A7B-E3E9EDB4ADF1}">
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="1"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
@@ -1105,7 +1105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="118" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C61" sqref="C61"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>146</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" hidden="1">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" hidden="1">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" hidden="1">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -2826,15 +2826,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F5CB8A00F1A0841B3F9E89D33680BD0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c000b4385f70b7b1f84268cc1d8b6f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c43a8398-59d6-4544-8889-d61e38456917" xmlns:ns3="5290365f-c8d6-40d0-b44a-6be08a8a62f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66dbeb20f29d81400e6a07d4788d4730" ns2:_="" ns3:_="">
     <xsd:import namespace="c43a8398-59d6-4544-8889-d61e38456917"/>
@@ -3089,6 +3080,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3101,11 +3101,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5F3FA2-F157-4A54-88A9-DA8FEABFC56D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84604F91-3C59-4AE5-92E7-93618F763177}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
